--- a/Base/Teams/Chiefs/Players Data.xlsx
+++ b/Base/Teams/Chiefs/Players Data.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="27">
   <si>
     <t>Name</t>
   </si>
@@ -45,6 +45,9 @@
   </si>
   <si>
     <t>D.Gore</t>
+  </si>
+  <si>
+    <t>M.Burton</t>
   </si>
   <si>
     <t>T.Hill</t>
@@ -450,7 +453,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F10"/>
+  <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -481,16 +484,16 @@
         <v>5</v>
       </c>
       <c r="C2">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D2">
         <v>12</v>
       </c>
       <c r="E2">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F2">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -501,16 +504,16 @@
         <v>6</v>
       </c>
       <c r="C3">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="D3">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -521,10 +524,10 @@
         <v>7</v>
       </c>
       <c r="C4">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="D4">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E4">
         <v>5</v>
@@ -581,16 +584,16 @@
         <v>10</v>
       </c>
       <c r="C7">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F7">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -601,16 +604,16 @@
         <v>11</v>
       </c>
       <c r="C8">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F8">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -621,13 +624,13 @@
         <v>12</v>
       </c>
       <c r="C9">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F9">
         <v>1</v>
@@ -641,15 +644,35 @@
         <v>13</v>
       </c>
       <c r="C10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="1">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>14</v>
+      </c>
+      <c r="C11">
+        <v>0</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
+      <c r="E11">
+        <v>2</v>
+      </c>
+      <c r="F11">
         <v>1</v>
       </c>
     </row>
@@ -671,22 +694,22 @@
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -697,16 +720,16 @@
         <v>6</v>
       </c>
       <c r="C2">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D2">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G2">
         <v>4</v>
@@ -723,16 +746,16 @@
         <v>7</v>
       </c>
       <c r="C3">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D3">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G3">
         <v>3</v>
@@ -798,25 +821,25 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C6">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="D6">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="E6">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F6">
         <v>9</v>
       </c>
       <c r="G6">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H6">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -824,13 +847,13 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C7">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D7">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E7">
         <v>11</v>
@@ -850,13 +873,13 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C8">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="D8">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E8">
         <v>12</v>
@@ -876,13 +899,13 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C9">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D9">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E9">
         <v>6</v>
@@ -902,10 +925,10 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D10">
         <v>1</v>
@@ -928,7 +951,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C11">
         <v>3</v>
@@ -954,25 +977,25 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C12">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="D12">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="E12">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F12">
         <v>10</v>
       </c>
       <c r="G12">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="H12">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -980,7 +1003,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C13">
         <v>7</v>
@@ -1006,7 +1029,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C14">
         <v>6</v>
@@ -1032,7 +1055,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C15">
         <v>5</v>

--- a/Base/Teams/Chiefs/Players Data.xlsx
+++ b/Base/Teams/Chiefs/Players Data.xlsx
@@ -484,16 +484,16 @@
         <v>5</v>
       </c>
       <c r="C2">
+        <v>11</v>
+      </c>
+      <c r="D2">
+        <v>13</v>
+      </c>
+      <c r="E2">
+        <v>7</v>
+      </c>
+      <c r="F2">
         <v>10</v>
-      </c>
-      <c r="D2">
-        <v>12</v>
-      </c>
-      <c r="E2">
-        <v>6</v>
-      </c>
-      <c r="F2">
-        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -504,16 +504,16 @@
         <v>6</v>
       </c>
       <c r="C3">
-        <v>58</v>
+        <v>65</v>
       </c>
       <c r="D3">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="E3">
         <v>2</v>
       </c>
       <c r="F3">
-        <v>8</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -524,7 +524,7 @@
         <v>7</v>
       </c>
       <c r="C4">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D4">
         <v>16</v>
@@ -533,7 +533,7 @@
         <v>5</v>
       </c>
       <c r="F4">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -564,13 +564,13 @@
         <v>9</v>
       </c>
       <c r="C6">
+        <v>8</v>
+      </c>
+      <c r="D6">
         <v>5</v>
       </c>
-      <c r="D6">
-        <v>1</v>
-      </c>
       <c r="E6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -590,10 +590,10 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F7">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -624,7 +624,7 @@
         <v>12</v>
       </c>
       <c r="C9">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D9">
         <v>0</v>
@@ -720,10 +720,10 @@
         <v>6</v>
       </c>
       <c r="C2">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="D2">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="E2">
         <v>1</v>
@@ -746,22 +746,22 @@
         <v>7</v>
       </c>
       <c r="C3">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D3">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E3">
+        <v>4</v>
+      </c>
+      <c r="F3">
+        <v>4</v>
+      </c>
+      <c r="G3">
+        <v>4</v>
+      </c>
+      <c r="H3">
         <v>3</v>
-      </c>
-      <c r="F3">
-        <v>3</v>
-      </c>
-      <c r="G3">
-        <v>3</v>
-      </c>
-      <c r="H3">
-        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -798,10 +798,10 @@
         <v>9</v>
       </c>
       <c r="C5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -824,16 +824,16 @@
         <v>11</v>
       </c>
       <c r="C6">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="D6">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="E6">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F6">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G6">
         <v>17</v>
@@ -850,16 +850,16 @@
         <v>12</v>
       </c>
       <c r="C7">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D7">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E7">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F7">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G7">
         <v>11</v>
@@ -882,10 +882,10 @@
         <v>16</v>
       </c>
       <c r="E8">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F8">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G8">
         <v>1</v>
@@ -954,11 +954,11 @@
         <v>24</v>
       </c>
       <c r="C11">
+        <v>6</v>
+      </c>
+      <c r="D11">
         <v>3</v>
       </c>
-      <c r="D11">
-        <v>1</v>
-      </c>
       <c r="E11">
         <v>2</v>
       </c>
@@ -966,10 +966,10 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -980,10 +980,10 @@
         <v>13</v>
       </c>
       <c r="C12">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="D12">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="E12">
         <v>19</v>

--- a/Base/Teams/Chiefs/Players Data.xlsx
+++ b/Base/Teams/Chiefs/Players Data.xlsx
@@ -1,21 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24701"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/136736bc97bfa800/Robbie/Football/nfl-simulation-app/Base/Teams/Chiefs/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="25" documentId="11_259B8AC93EB9057A57F32937F5EA457751363A4F" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A32AB08A-65C0-497A-9686-EA40F75085DB}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Rushing" sheetId="1" r:id="rId1"/>
     <sheet name="Receiving" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="27">
   <si>
     <t>Name</t>
   </si>
@@ -101,8 +107,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -165,6 +171,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -211,7 +225,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -243,9 +257,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -277,6 +309,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -452,14 +502,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -476,7 +526,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -484,10 +534,10 @@
         <v>5</v>
       </c>
       <c r="C2">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D2">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E2">
         <v>7</v>
@@ -496,7 +546,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -504,19 +554,19 @@
         <v>6</v>
       </c>
       <c r="C3">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="D3">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="E3">
         <v>2</v>
       </c>
       <c r="F3">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -524,19 +574,19 @@
         <v>7</v>
       </c>
       <c r="C4">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="D4">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E4">
         <v>5</v>
       </c>
       <c r="F4">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -556,7 +606,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -576,7 +626,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -590,13 +640,13 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -616,7 +666,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -624,7 +674,7 @@
         <v>12</v>
       </c>
       <c r="C9">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D9">
         <v>0</v>
@@ -636,7 +686,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -656,7 +706,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -670,7 +720,7 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
@@ -682,14 +732,16 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H15"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:H16"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G10" sqref="G10"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -712,7 +764,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -720,10 +772,10 @@
         <v>6</v>
       </c>
       <c r="C2">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="D2">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E2">
         <v>1</v>
@@ -738,7 +790,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -746,7 +798,7 @@
         <v>7</v>
       </c>
       <c r="C3">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D3">
         <v>19</v>
@@ -758,13 +810,13 @@
         <v>4</v>
       </c>
       <c r="G3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H3">
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -790,7 +842,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -816,102 +868,102 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C6">
-        <v>101</v>
+        <v>1</v>
       </c>
       <c r="D6">
-        <v>79</v>
+        <v>1</v>
       </c>
       <c r="E6">
-        <v>29</v>
+        <v>1</v>
       </c>
       <c r="F6">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="G6">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="H6">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C7">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="D7">
-        <v>39</v>
+        <v>0</v>
       </c>
       <c r="E7">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="F7">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="G7">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="H7">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="C8">
-        <v>24</v>
+        <v>80</v>
       </c>
       <c r="D8">
-        <v>16</v>
+        <v>60</v>
       </c>
       <c r="E8">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="F8">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="G8">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="H8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C9">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="D9">
-        <v>15</v>
+        <v>35</v>
       </c>
       <c r="E9">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="F9">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="G9">
         <v>3</v>
@@ -920,102 +972,102 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:8">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10" t="s">
+        <v>22</v>
+      </c>
+      <c r="C10">
+        <v>30</v>
+      </c>
+      <c r="D10">
         <v>23</v>
       </c>
-      <c r="C10">
-        <v>2</v>
-      </c>
-      <c r="D10">
-        <v>1</v>
-      </c>
       <c r="E10">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F10">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G10">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C11">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D11">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="C12">
-        <v>89</v>
+        <v>6</v>
       </c>
       <c r="D12">
-        <v>62</v>
+        <v>3</v>
       </c>
       <c r="E12">
-        <v>19</v>
+        <v>2</v>
       </c>
       <c r="F12">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="G12">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="H12">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C13">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="D13">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G13">
         <v>0</v>
@@ -1024,55 +1076,81 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:8">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="C14">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D14">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G14">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H14">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15">
+        <v>6</v>
+      </c>
+      <c r="D15">
+        <v>3</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="F15">
+        <v>0</v>
+      </c>
+      <c r="G15">
+        <v>4</v>
+      </c>
+      <c r="H15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A16" s="1">
+        <v>14</v>
+      </c>
+      <c r="B16" t="s">
         <v>26</v>
       </c>
-      <c r="C15">
+      <c r="C16">
         <v>5</v>
       </c>
-      <c r="D15">
+      <c r="D16">
         <v>5</v>
       </c>
-      <c r="E15">
-        <v>1</v>
-      </c>
-      <c r="F15">
-        <v>1</v>
-      </c>
-      <c r="G15">
-        <v>2</v>
-      </c>
-      <c r="H15">
+      <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>2</v>
+      </c>
+      <c r="H16">
         <v>2</v>
       </c>
     </row>

--- a/Base/Teams/Chiefs/Players Data.xlsx
+++ b/Base/Teams/Chiefs/Players Data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/136736bc97bfa800/Robbie/Football/nfl-simulation-app/Base/Teams/Chiefs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="25" documentId="11_259B8AC93EB9057A57F32937F5EA457751363A4F" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A32AB08A-65C0-497A-9686-EA40F75085DB}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="11_B9788BE852D6FC0DE5122C37F5EA4577E132A779" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BFBB8590-8976-4F1D-83AC-60C58684CBDF}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="28">
   <si>
     <t>Name</t>
   </si>
@@ -39,6 +39,9 @@
   </si>
   <si>
     <t>P.Mahomes</t>
+  </si>
+  <si>
+    <t>C.Henne</t>
   </si>
   <si>
     <t>C.Edwards-Helaire</t>
@@ -503,7 +506,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F11"/>
+  <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -554,16 +557,16 @@
         <v>6</v>
       </c>
       <c r="C3">
-        <v>70</v>
+        <v>1</v>
       </c>
       <c r="D3">
-        <v>38</v>
+        <v>1</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F3">
-        <v>13</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
@@ -574,16 +577,16 @@
         <v>7</v>
       </c>
       <c r="C4">
-        <v>32</v>
+        <v>73</v>
       </c>
       <c r="D4">
-        <v>17</v>
+        <v>44</v>
       </c>
       <c r="E4">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
@@ -594,16 +597,16 @@
         <v>8</v>
       </c>
       <c r="C5">
-        <v>1</v>
+        <v>39</v>
       </c>
       <c r="D5">
-        <v>2</v>
+        <v>19</v>
       </c>
       <c r="E5">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="F5">
-        <v>0</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
@@ -614,13 +617,13 @@
         <v>9</v>
       </c>
       <c r="C6">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="D6">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -634,13 +637,13 @@
         <v>10</v>
       </c>
       <c r="C7">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="D7">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="E7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F7">
         <v>2</v>
@@ -654,16 +657,16 @@
         <v>11</v>
       </c>
       <c r="C8">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F8">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
@@ -680,10 +683,10 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F9">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
@@ -694,13 +697,13 @@
         <v>13</v>
       </c>
       <c r="C10">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F10">
         <v>1</v>
@@ -714,15 +717,35 @@
         <v>14</v>
       </c>
       <c r="C11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A12" s="1">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>15</v>
+      </c>
+      <c r="C12">
+        <v>0</v>
+      </c>
+      <c r="D12">
+        <v>0</v>
+      </c>
+      <c r="E12">
+        <v>3</v>
+      </c>
+      <c r="F12">
         <v>1</v>
       </c>
     </row>
@@ -736,7 +759,7 @@
   <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+      <selection activeCell="N9" sqref="N9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -746,22 +769,22 @@
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
@@ -769,7 +792,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C2">
         <v>37</v>
@@ -795,7 +818,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C3">
         <v>27</v>
@@ -821,7 +844,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C4">
         <v>2</v>
@@ -847,7 +870,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C5">
         <v>3</v>
@@ -873,7 +896,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C6">
         <v>1</v>
@@ -899,25 +922,25 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C7">
-        <v>0</v>
+        <v>111</v>
       </c>
       <c r="D7">
-        <v>0</v>
+        <v>88</v>
       </c>
       <c r="E7">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="F7">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="G7">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>16</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
@@ -925,19 +948,19 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C8">
-        <v>80</v>
+        <v>53</v>
       </c>
       <c r="D8">
-        <v>60</v>
+        <v>41</v>
       </c>
       <c r="E8">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="F8">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="G8">
         <v>12</v>
@@ -951,19 +974,19 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C9">
-        <v>50</v>
+        <v>28</v>
       </c>
       <c r="D9">
-        <v>35</v>
+        <v>19</v>
       </c>
       <c r="E9">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="F9">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="G9">
         <v>3</v>
@@ -977,19 +1000,19 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10">
         <v>22</v>
       </c>
-      <c r="C10">
-        <v>30</v>
-      </c>
       <c r="D10">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="E10">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="F10">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G10">
         <v>3</v>
@@ -1003,7 +1026,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C11">
         <v>2</v>
@@ -1029,7 +1052,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C12">
         <v>6</v>
@@ -1055,25 +1078,25 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
+        <v>14</v>
+      </c>
+      <c r="C13">
+        <v>98</v>
+      </c>
+      <c r="D13">
+        <v>69</v>
+      </c>
+      <c r="E13">
+        <v>23</v>
+      </c>
+      <c r="F13">
         <v>13</v>
       </c>
-      <c r="C13">
-        <v>0</v>
-      </c>
-      <c r="D13">
-        <v>0</v>
-      </c>
-      <c r="E13">
-        <v>0</v>
-      </c>
-      <c r="F13">
-        <v>0</v>
-      </c>
       <c r="G13">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
@@ -1081,7 +1104,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C14">
         <v>8</v>
@@ -1107,7 +1130,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C15">
         <v>6</v>
@@ -1133,7 +1156,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C16">
         <v>5</v>

--- a/Base/Teams/Chiefs/Players Data.xlsx
+++ b/Base/Teams/Chiefs/Players Data.xlsx
@@ -1,22 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24701"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/136736bc97bfa800/Robbie/Football/nfl-simulation-app/Base/Teams/Chiefs/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="11_B9788BE852D6FC0DE5122C37F5EA4577E132A779" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BFBB8590-8976-4F1D-83AC-60C58684CBDF}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Rushing" sheetId="1" r:id="rId1"/>
     <sheet name="Receiving" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -110,8 +104,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -174,14 +168,6 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -228,7 +214,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -260,27 +246,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -312,24 +280,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -505,14 +455,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F12"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -529,7 +479,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -537,19 +487,19 @@
         <v>5</v>
       </c>
       <c r="C2">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D2">
         <v>14</v>
       </c>
       <c r="E2">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F2">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -569,7 +519,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -589,7 +539,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -597,19 +547,19 @@
         <v>8</v>
       </c>
       <c r="C5">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="D5">
+        <v>24</v>
+      </c>
+      <c r="E5">
+        <v>8</v>
+      </c>
+      <c r="F5">
         <v>19</v>
       </c>
-      <c r="E5">
-        <v>7</v>
-      </c>
-      <c r="F5">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="6" spans="1:6">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -629,7 +579,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -637,19 +587,19 @@
         <v>10</v>
       </c>
       <c r="C7">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D7">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -663,13 +613,13 @@
         <v>0</v>
       </c>
       <c r="E8">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F8">
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -677,7 +627,7 @@
         <v>12</v>
       </c>
       <c r="C9">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D9">
         <v>0</v>
@@ -689,7 +639,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -709,7 +659,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -717,7 +667,7 @@
         <v>14</v>
       </c>
       <c r="C11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D11">
         <v>0</v>
@@ -726,10 +676,10 @@
         <v>0</v>
       </c>
       <c r="F11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -743,7 +693,7 @@
         <v>0</v>
       </c>
       <c r="E12">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F12">
         <v>1</v>
@@ -755,16 +705,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N9" sqref="N9"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -787,7 +735,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -813,7 +761,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -821,10 +769,10 @@
         <v>8</v>
       </c>
       <c r="C3">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="D3">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="E3">
         <v>4</v>
@@ -839,7 +787,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -865,7 +813,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -873,10 +821,10 @@
         <v>10</v>
       </c>
       <c r="C5">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D5">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -891,7 +839,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -917,7 +865,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -925,25 +873,25 @@
         <v>12</v>
       </c>
       <c r="C7">
-        <v>111</v>
+        <v>119</v>
       </c>
       <c r="D7">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="E7">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="F7">
         <v>13</v>
       </c>
       <c r="G7">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="H7">
         <v>16</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -957,10 +905,10 @@
         <v>41</v>
       </c>
       <c r="E8">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F8">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G8">
         <v>12</v>
@@ -969,7 +917,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -977,16 +925,16 @@
         <v>22</v>
       </c>
       <c r="C9">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="D9">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E9">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F9">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G9">
         <v>3</v>
@@ -995,7 +943,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -1003,25 +951,25 @@
         <v>23</v>
       </c>
       <c r="C10">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D10">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E10">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G10">
+        <v>4</v>
+      </c>
+      <c r="H10">
         <v>3</v>
       </c>
-      <c r="H10">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="11" spans="1:8">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -1035,7 +983,7 @@
         <v>1</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -1047,7 +995,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -1055,10 +1003,10 @@
         <v>25</v>
       </c>
       <c r="C12">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D12">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E12">
         <v>2</v>
@@ -1073,7 +1021,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1081,10 +1029,10 @@
         <v>14</v>
       </c>
       <c r="C13">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="D13">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="E13">
         <v>23</v>
@@ -1093,13 +1041,13 @@
         <v>13</v>
       </c>
       <c r="G13">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="H13">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1107,25 +1055,25 @@
         <v>15</v>
       </c>
       <c r="C14">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D14">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1133,10 +1081,10 @@
         <v>26</v>
       </c>
       <c r="C15">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D15">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1151,7 +1099,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:8">
       <c r="A16" s="1">
         <v>14</v>
       </c>

--- a/Base/Teams/Chiefs/Players Data.xlsx
+++ b/Base/Teams/Chiefs/Players Data.xlsx
@@ -487,16 +487,16 @@
         <v>5</v>
       </c>
       <c r="C2">
+        <v>16</v>
+      </c>
+      <c r="D2">
+        <v>18</v>
+      </c>
+      <c r="E2">
+        <v>9</v>
+      </c>
+      <c r="F2">
         <v>13</v>
-      </c>
-      <c r="D2">
-        <v>14</v>
-      </c>
-      <c r="E2">
-        <v>8</v>
-      </c>
-      <c r="F2">
-        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -547,13 +547,13 @@
         <v>8</v>
       </c>
       <c r="C5">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="D5">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="E5">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="F5">
         <v>19</v>
@@ -567,16 +567,16 @@
         <v>9</v>
       </c>
       <c r="C6">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="D6">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -587,7 +587,7 @@
         <v>10</v>
       </c>
       <c r="C7">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="D7">
         <v>10</v>
@@ -596,7 +596,7 @@
         <v>3</v>
       </c>
       <c r="F7">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -613,10 +613,10 @@
         <v>0</v>
       </c>
       <c r="E8">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F8">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -647,7 +647,7 @@
         <v>13</v>
       </c>
       <c r="C10">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D10">
         <v>0</v>
@@ -769,10 +769,10 @@
         <v>8</v>
       </c>
       <c r="C3">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="D3">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="E3">
         <v>4</v>
@@ -781,7 +781,7 @@
         <v>4</v>
       </c>
       <c r="G3">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H3">
         <v>3</v>
@@ -795,22 +795,22 @@
         <v>9</v>
       </c>
       <c r="C4">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="D4">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G4">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -821,7 +821,7 @@
         <v>10</v>
       </c>
       <c r="C5">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D5">
         <v>4</v>
@@ -833,7 +833,7 @@
         <v>0</v>
       </c>
       <c r="G5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -873,22 +873,22 @@
         <v>12</v>
       </c>
       <c r="C7">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="D7">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="E7">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="F7">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="G7">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="H7">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -899,22 +899,22 @@
         <v>13</v>
       </c>
       <c r="C8">
-        <v>53</v>
+        <v>64</v>
       </c>
       <c r="D8">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="E8">
+        <v>18</v>
+      </c>
+      <c r="F8">
+        <v>9</v>
+      </c>
+      <c r="G8">
         <v>14</v>
       </c>
-      <c r="F8">
-        <v>6</v>
-      </c>
-      <c r="G8">
-        <v>12</v>
-      </c>
       <c r="H8">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -925,22 +925,22 @@
         <v>22</v>
       </c>
       <c r="C9">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="D9">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="E9">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F9">
         <v>10</v>
       </c>
       <c r="G9">
+        <v>5</v>
+      </c>
+      <c r="H9">
         <v>3</v>
-      </c>
-      <c r="H9">
-        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -951,16 +951,16 @@
         <v>23</v>
       </c>
       <c r="C10">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="D10">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="E10">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="F10">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G10">
         <v>4</v>
@@ -1003,7 +1003,7 @@
         <v>25</v>
       </c>
       <c r="C12">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D12">
         <v>4</v>
@@ -1029,22 +1029,22 @@
         <v>14</v>
       </c>
       <c r="C13">
-        <v>105</v>
+        <v>117</v>
       </c>
       <c r="D13">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="E13">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="F13">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="G13">
+        <v>20</v>
+      </c>
+      <c r="H13">
         <v>16</v>
-      </c>
-      <c r="H13">
-        <v>12</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -1055,10 +1055,10 @@
         <v>15</v>
       </c>
       <c r="C14">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D14">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E14">
         <v>2</v>
@@ -1067,10 +1067,10 @@
         <v>2</v>
       </c>
       <c r="G14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H14">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -1081,7 +1081,7 @@
         <v>26</v>
       </c>
       <c r="C15">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D15">
         <v>4</v>

--- a/Base/Teams/Chiefs/Players Data.xlsx
+++ b/Base/Teams/Chiefs/Players Data.xlsx
@@ -487,16 +487,16 @@
         <v>5</v>
       </c>
       <c r="C2">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D2">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="F2">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -527,16 +527,16 @@
         <v>7</v>
       </c>
       <c r="C4">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="D4">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="E4">
         <v>2</v>
       </c>
       <c r="F4">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -567,16 +567,16 @@
         <v>9</v>
       </c>
       <c r="C6">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="D6">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="E6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F6">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -627,7 +627,7 @@
         <v>12</v>
       </c>
       <c r="C9">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D9">
         <v>0</v>
@@ -647,7 +647,7 @@
         <v>13</v>
       </c>
       <c r="C10">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D10">
         <v>0</v>
@@ -693,10 +693,10 @@
         <v>0</v>
       </c>
       <c r="E12">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F12">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -743,10 +743,10 @@
         <v>7</v>
       </c>
       <c r="C2">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="D2">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E2">
         <v>1</v>
@@ -755,7 +755,7 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H2">
         <v>3</v>
@@ -795,22 +795,22 @@
         <v>9</v>
       </c>
       <c r="C4">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D4">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="E4">
+        <v>4</v>
+      </c>
+      <c r="F4">
         <v>3</v>
       </c>
-      <c r="F4">
-        <v>2</v>
-      </c>
       <c r="G4">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H4">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -873,19 +873,19 @@
         <v>12</v>
       </c>
       <c r="C7">
-        <v>124</v>
+        <v>134</v>
       </c>
       <c r="D7">
-        <v>98</v>
+        <v>107</v>
       </c>
       <c r="E7">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="F7">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="G7">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="H7">
         <v>18</v>
@@ -905,10 +905,10 @@
         <v>50</v>
       </c>
       <c r="E8">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F8">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G8">
         <v>14</v>
@@ -925,10 +925,10 @@
         <v>22</v>
       </c>
       <c r="C9">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="D9">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="E9">
         <v>15</v>
@@ -937,10 +937,10 @@
         <v>10</v>
       </c>
       <c r="G9">
+        <v>7</v>
+      </c>
+      <c r="H9">
         <v>5</v>
-      </c>
-      <c r="H9">
-        <v>3</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -951,7 +951,7 @@
         <v>23</v>
       </c>
       <c r="C10">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D10">
         <v>21</v>
@@ -1029,22 +1029,22 @@
         <v>14</v>
       </c>
       <c r="C13">
-        <v>117</v>
+        <v>125</v>
       </c>
       <c r="D13">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="E13">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="F13">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="G13">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H13">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -1081,10 +1081,10 @@
         <v>26</v>
       </c>
       <c r="C15">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D15">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E15">
         <v>0</v>

--- a/Base/Teams/Chiefs/Players Data.xlsx
+++ b/Base/Teams/Chiefs/Players Data.xlsx
@@ -487,16 +487,16 @@
         <v>5</v>
       </c>
       <c r="C2">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D2">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E2">
         <v>12</v>
       </c>
       <c r="F2">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -527,10 +527,10 @@
         <v>7</v>
       </c>
       <c r="C4">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="D4">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E4">
         <v>2</v>
@@ -567,16 +567,16 @@
         <v>9</v>
       </c>
       <c r="C6">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="D6">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="E6">
         <v>1</v>
       </c>
       <c r="F6">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -613,7 +613,7 @@
         <v>0</v>
       </c>
       <c r="E8">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F8">
         <v>4</v>
@@ -647,10 +647,10 @@
         <v>13</v>
       </c>
       <c r="C10">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E10">
         <v>1</v>
@@ -743,10 +743,10 @@
         <v>7</v>
       </c>
       <c r="C2">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D2">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E2">
         <v>1</v>
@@ -795,10 +795,10 @@
         <v>9</v>
       </c>
       <c r="C4">
+        <v>19</v>
+      </c>
+      <c r="D4">
         <v>15</v>
-      </c>
-      <c r="D4">
-        <v>12</v>
       </c>
       <c r="E4">
         <v>4</v>
@@ -807,10 +807,10 @@
         <v>3</v>
       </c>
       <c r="G4">
+        <v>6</v>
+      </c>
+      <c r="H4">
         <v>5</v>
-      </c>
-      <c r="H4">
-        <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -873,22 +873,22 @@
         <v>12</v>
       </c>
       <c r="C7">
-        <v>134</v>
+        <v>142</v>
       </c>
       <c r="D7">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="E7">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="F7">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G7">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="H7">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -899,22 +899,22 @@
         <v>13</v>
       </c>
       <c r="C8">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="D8">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="E8">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F8">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G8">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H8">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -925,13 +925,13 @@
         <v>22</v>
       </c>
       <c r="C9">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D9">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="E9">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F9">
         <v>10</v>
@@ -951,7 +951,7 @@
         <v>23</v>
       </c>
       <c r="C10">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="D10">
         <v>21</v>
@@ -1029,10 +1029,10 @@
         <v>14</v>
       </c>
       <c r="C13">
-        <v>125</v>
+        <v>136</v>
       </c>
       <c r="D13">
-        <v>89</v>
+        <v>99</v>
       </c>
       <c r="E13">
         <v>27</v>
@@ -1041,10 +1041,10 @@
         <v>17</v>
       </c>
       <c r="G13">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="H13">
-        <v>17</v>
+        <v>20</v>
       </c>
     </row>
     <row r="14" spans="1:8">
